--- a/document/HiTE_Genome_Biology/supplementary/Table S1.xlsx
+++ b/document/HiTE_Genome_Biology/supplementary/Table S1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\HiTE\document\HiTE_Genome_Biology\supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\HiTE\document\HiTE_Genome_Biology\supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A99DEC6-4392-49D7-9FE0-723D29072598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11940"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="1" r:id="rId1"/>
@@ -198,8 +199,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,21 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -239,6 +225,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,41 +261,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,380 +581,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="71.625" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="6" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="4" spans="1:21" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B10" s="8">
         <v>1.2</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" s="6" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B13" s="8">
         <v>1.54</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="14" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+    <row r="15" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>37</v>
       </c>
     </row>

--- a/document/HiTE_Genome_Biology/supplementary/Table S1.xlsx
+++ b/document/HiTE_Genome_Biology/supplementary/Table S1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\HiTE\document\HiTE_Genome_Biology\supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A99DEC6-4392-49D7-9FE0-723D29072598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3190F6-DF13-4CF6-8794-A6F6B49EAB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1176" windowWidth="22200" windowHeight="14748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table S1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S2" sheetId="2" r:id="rId1"/>
+    <sheet name="Table S3" sheetId="3" r:id="rId2"/>
+    <sheet name="Table S1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>Version</t>
   </si>
@@ -62,10 +64,6 @@
   </si>
   <si>
     <t>EDTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table S1: Details of tools and parameters used in benchmarking and HiTE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,6 +191,136 @@
   </si>
   <si>
     <t>TE Finder 2.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table S2: Details of performance among general-purpose repeat annotators.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table S1: Details of tools and parameters used in benchmarking and HiTE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDTA evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>FDR</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Not_found</t>
+  </si>
+  <si>
+    <t>RepeatModeler2 evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O. sativa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C. briggsae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. rerio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. melanogaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table S3: Details of performance among all types of TE annotators based on O. sativa.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helitron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-LTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDTA-TIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiTE-TIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDTA-HelitronScanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiTE-Helitron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTR_FINDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTR_retriever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-LTR library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiTE-non-LTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMEA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +363,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +378,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -270,13 +404,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,23 +458,96 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,11 +828,1484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6217C89A-787F-4E97-9017-4E23ED69180A}">
+  <dimension ref="A1:AD21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.21875" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+    </row>
+    <row r="2" spans="1:30" s="4" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:30" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.95140000000000002</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.9476</v>
+      </c>
+      <c r="G4" s="21">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21">
+        <v>173</v>
+      </c>
+      <c r="K4" s="21">
+        <v>149</v>
+      </c>
+      <c r="L4" s="22">
+        <v>375</v>
+      </c>
+      <c r="M4" s="23">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="9" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.8831</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20">
+        <v>464</v>
+      </c>
+      <c r="K5" s="20">
+        <v>225</v>
+      </c>
+      <c r="L5" s="24">
+        <v>709</v>
+      </c>
+      <c r="M5" s="25">
+        <v>1686</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+    </row>
+    <row r="6" spans="1:30" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="G6" s="20">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20">
+        <v>385</v>
+      </c>
+      <c r="K6" s="20">
+        <v>94</v>
+      </c>
+      <c r="L6" s="24">
+        <v>394</v>
+      </c>
+      <c r="M6" s="25">
+        <v>2211</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+    </row>
+    <row r="7" spans="1:30" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="G7" s="20">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20">
+        <v>858</v>
+      </c>
+      <c r="K7" s="20">
+        <v>106</v>
+      </c>
+      <c r="L7" s="24">
+        <v>430</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1690</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+    </row>
+    <row r="8" spans="1:30" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.81769999999999998</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <v>777</v>
+      </c>
+      <c r="K8" s="20">
+        <v>583</v>
+      </c>
+      <c r="L8" s="35">
+        <v>661</v>
+      </c>
+      <c r="M8" s="25">
+        <v>1063</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+    </row>
+    <row r="9" spans="1:30" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.6583</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.3417</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
+        <v>58</v>
+      </c>
+      <c r="K9" s="21">
+        <v>25</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="23">
+        <v>85</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+    </row>
+    <row r="10" spans="1:30" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.7167</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20">
+        <v>8</v>
+      </c>
+      <c r="K10" s="20">
+        <v>27</v>
+      </c>
+      <c r="L10" s="20">
+        <v>49</v>
+      </c>
+      <c r="M10" s="25">
+        <v>143</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+    </row>
+    <row r="11" spans="1:30" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20">
+        <v>34</v>
+      </c>
+      <c r="K11" s="20">
+        <v>17</v>
+      </c>
+      <c r="L11" s="20">
+        <v>64</v>
+      </c>
+      <c r="M11" s="25">
+        <v>112</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+    </row>
+    <row r="12" spans="1:30" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.755</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.245</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="20">
+        <v>93</v>
+      </c>
+      <c r="K12" s="20">
+        <v>14</v>
+      </c>
+      <c r="L12" s="20">
+        <v>55</v>
+      </c>
+      <c r="M12" s="25">
+        <v>65</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+    </row>
+    <row r="13" spans="1:30" s="9" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+    </row>
+    <row r="14" spans="1:30" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="G14" s="20">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0.92010000000000003</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20">
+        <v>453</v>
+      </c>
+      <c r="K14" s="20">
+        <v>252</v>
+      </c>
+      <c r="L14" s="20">
+        <v>659</v>
+      </c>
+      <c r="M14" s="25">
+        <v>958</v>
+      </c>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+    </row>
+    <row r="15" spans="1:30" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.92490000000000006</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="G15" s="20">
+        <v>5.79E-2</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20">
+        <v>480</v>
+      </c>
+      <c r="K15" s="20">
+        <v>159</v>
+      </c>
+      <c r="L15" s="20">
+        <v>294</v>
+      </c>
+      <c r="M15" s="25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" s="11" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.9012</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G16" s="20">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <v>868</v>
+      </c>
+      <c r="K16" s="20">
+        <v>147</v>
+      </c>
+      <c r="L16" s="20">
+        <v>347</v>
+      </c>
+      <c r="M16" s="25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="11" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.9577</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21">
+        <v>21</v>
+      </c>
+      <c r="K17" s="21">
+        <v>106</v>
+      </c>
+      <c r="L17" s="21">
+        <v>49</v>
+      </c>
+      <c r="M17" s="23">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0.73219999999999996</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.9113</v>
+      </c>
+      <c r="G18" s="20">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
+        <v>43</v>
+      </c>
+      <c r="K18" s="20">
+        <v>23</v>
+      </c>
+      <c r="L18" s="20">
+        <v>19</v>
+      </c>
+      <c r="M18" s="25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20">
+        <v>66</v>
+      </c>
+      <c r="K19" s="20">
+        <v>36</v>
+      </c>
+      <c r="L19" s="20">
+        <v>39</v>
+      </c>
+      <c r="M19" s="25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.9718</v>
+      </c>
+      <c r="G20" s="20">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20">
+        <v>77</v>
+      </c>
+      <c r="K20" s="20">
+        <v>36</v>
+      </c>
+      <c r="L20" s="20">
+        <v>21</v>
+      </c>
+      <c r="M20" s="25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L9" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F45D4A7-56B3-4764-B0D9-F711C6263EDC}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.69889999999999997</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.41489999999999999</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21">
+        <v>165</v>
+      </c>
+      <c r="K4" s="21">
+        <v>112</v>
+      </c>
+      <c r="L4" s="21">
+        <v>320</v>
+      </c>
+      <c r="M4" s="23">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.15690000000000001</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.8518</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20">
+        <v>374</v>
+      </c>
+      <c r="K5" s="20">
+        <v>39</v>
+      </c>
+      <c r="L5" s="20">
+        <v>217</v>
+      </c>
+      <c r="M5" s="25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.2666</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.9536</v>
+      </c>
+      <c r="G6" s="21">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20">
+        <v>4</v>
+      </c>
+      <c r="K7" s="20">
+        <v>30</v>
+      </c>
+      <c r="L7" s="20">
+        <v>54</v>
+      </c>
+      <c r="M7" s="25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.27610000000000001</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="20">
+        <v>35</v>
+      </c>
+      <c r="K8" s="20">
+        <v>14</v>
+      </c>
+      <c r="L8" s="20">
+        <v>21</v>
+      </c>
+      <c r="M8" s="25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.8548</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.3644</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21">
+        <v>395</v>
+      </c>
+      <c r="K9" s="21">
+        <v>56</v>
+      </c>
+      <c r="L9" s="21">
+        <v>105</v>
+      </c>
+      <c r="M9" s="21">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20">
+        <v>493</v>
+      </c>
+      <c r="K10" s="20">
+        <v>68</v>
+      </c>
+      <c r="L10" s="20">
+        <v>117</v>
+      </c>
+      <c r="M10" s="25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.9456</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.94910000000000005</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20">
+        <v>417</v>
+      </c>
+      <c r="K11" s="20">
+        <v>46</v>
+      </c>
+      <c r="L11" s="20">
+        <v>172</v>
+      </c>
+      <c r="M11" s="25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.73019999999999996</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.9879</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.9819</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.41170000000000001</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21">
+        <v>77</v>
+      </c>
+      <c r="K12" s="21">
+        <v>3</v>
+      </c>
+      <c r="L12" s="21">
+        <v>21</v>
+      </c>
+      <c r="M12" s="23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="G13" s="20">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0.7863</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20">
+        <v>24</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <v>21</v>
+      </c>
+      <c r="M13" s="25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -596,9 +2316,9 @@
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>10</v>
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -621,338 +2341,338 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="9" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:21" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:21" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21" s="9" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:21" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+    </row>
+    <row r="10" spans="1:21" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8">
         <v>1.2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:21" s="9" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" s="4" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+    </row>
+    <row r="12" spans="1:21" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+    </row>
+    <row r="13" spans="1:21" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="B13" s="8">
         <v>1.54</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="11" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="11" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
